--- a/res/scape-icon-resolutions.xlsx
+++ b/res/scape-icon-resolutions.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11210"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://scapefoundation.sharepoint.com/sites/Design/Shared Documents/icons/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/larsvanvianen/Documents/GitHub/scapeagency/icon.gl/res/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_F6FAD4E9CCEFD89AECF14C4730E85911622484EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4804703B-17E4-4579-ADE8-AD17CE8BCF67}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3423D0-FDA6-3844-AC1F-068ADF1FD237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4300" yWindow="860" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,9 +30,6 @@
     <t>format</t>
   </si>
   <si>
-    <t>.ia</t>
-  </si>
-  <si>
     <t>.eps</t>
   </si>
   <si>
@@ -100,13 +97,16 @@
   </si>
   <si>
     <t>app</t>
+  </si>
+  <si>
+    <t>.ai</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -310,7 +310,7 @@
   <autoFilter ref="A1:K15" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="format"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name=".ia"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name=".ai"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name=".eps"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name=".svg"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name=".psd"/>
@@ -650,508 +650,508 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
-    <col min="2" max="11" width="5.125" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
+    <col min="2" max="11" width="5.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="32.1" customHeight="1" thickBot="1">
+    <row r="1" spans="1:11" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>23</v>
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0</v>
+      </c>
+      <c r="K2" s="4">
+        <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="16.5" thickTop="1">
-      <c r="A2" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4">
-        <v>0</v>
-      </c>
-      <c r="G2" s="4">
-        <v>0</v>
-      </c>
-      <c r="H2" s="4">
-        <v>0</v>
-      </c>
-      <c r="I2" s="4">
-        <v>0</v>
-      </c>
-      <c r="J2" s="4">
-        <v>0</v>
-      </c>
-      <c r="K2" s="4">
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>1</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4">
-        <v>1</v>
-      </c>
-      <c r="H3" s="4">
-        <v>0</v>
-      </c>
-      <c r="I3" s="4">
-        <v>1</v>
-      </c>
-      <c r="J3" s="4">
-        <v>0</v>
-      </c>
-      <c r="K3" s="4">
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <v>1</v>
+      </c>
+      <c r="K4" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4">
-        <v>1</v>
-      </c>
-      <c r="H4" s="4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0</v>
-      </c>
-      <c r="J4" s="4">
-        <v>1</v>
-      </c>
-      <c r="K4" s="4">
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="4">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4">
-        <v>1</v>
-      </c>
-      <c r="H5" s="4">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0</v>
-      </c>
-      <c r="J5" s="4">
-        <v>0</v>
-      </c>
-      <c r="K5" s="4">
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="4">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4">
-        <v>1</v>
-      </c>
-      <c r="H6" s="4">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0</v>
-      </c>
-      <c r="J6" s="4">
-        <v>0</v>
-      </c>
-      <c r="K6" s="4">
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="4">
-        <v>0</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4">
-        <v>1</v>
-      </c>
-      <c r="H7" s="4">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0</v>
-      </c>
-      <c r="J7" s="4">
-        <v>0</v>
-      </c>
-      <c r="K7" s="4">
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
-      <c r="A8" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4">
-        <v>0</v>
-      </c>
-      <c r="C8" s="4">
-        <v>0</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0</v>
-      </c>
-      <c r="G8" s="4">
-        <v>1</v>
-      </c>
-      <c r="H8" s="4">
-        <v>0</v>
-      </c>
-      <c r="I8" s="4">
-        <v>0</v>
-      </c>
-      <c r="J8" s="4">
-        <v>0</v>
-      </c>
-      <c r="K8" s="4">
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="4">
-        <v>0</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4">
-        <v>1</v>
-      </c>
-      <c r="G9" s="4">
-        <v>1</v>
-      </c>
-      <c r="H9" s="4">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4">
-        <v>0</v>
-      </c>
-      <c r="J9" s="4">
-        <v>0</v>
-      </c>
-      <c r="K9" s="4">
+      <c r="B10" s="4">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
-      <c r="A10" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="4">
-        <v>0</v>
-      </c>
-      <c r="C10" s="4">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4">
-        <v>1</v>
-      </c>
-      <c r="G10" s="4">
-        <v>1</v>
-      </c>
-      <c r="H10" s="4">
-        <v>0</v>
-      </c>
-      <c r="I10" s="4">
-        <v>0</v>
-      </c>
-      <c r="J10" s="4">
-        <v>0</v>
-      </c>
-      <c r="K10" s="4">
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
-      <c r="A11" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="4">
-        <v>0</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0</v>
-      </c>
-      <c r="D11" s="4">
-        <v>1</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0</v>
-      </c>
-      <c r="F11" s="4">
-        <v>1</v>
-      </c>
-      <c r="G11" s="4">
-        <v>1</v>
-      </c>
-      <c r="H11" s="4">
-        <v>0</v>
-      </c>
-      <c r="I11" s="4">
-        <v>0</v>
-      </c>
-      <c r="J11" s="4">
-        <v>0</v>
-      </c>
-      <c r="K11" s="4">
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
-      <c r="A12" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="4">
-        <v>0</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0</v>
-      </c>
-      <c r="D12" s="4">
-        <v>1</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0</v>
-      </c>
-      <c r="F12" s="4">
-        <v>1</v>
-      </c>
-      <c r="G12" s="4">
-        <v>1</v>
-      </c>
-      <c r="H12" s="4">
-        <v>0</v>
-      </c>
-      <c r="I12" s="4">
-        <v>0</v>
-      </c>
-      <c r="J12" s="4">
-        <v>0</v>
-      </c>
-      <c r="K12" s="4">
-        <v>1</v>
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
-      <c r="A13" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="4">
-        <v>1</v>
-      </c>
-      <c r="C13" s="4">
-        <v>1</v>
-      </c>
-      <c r="D13" s="4">
-        <v>1</v>
-      </c>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
-      <c r="F13" s="4">
-        <v>1</v>
-      </c>
-      <c r="G13" s="4">
-        <v>1</v>
-      </c>
-      <c r="H13" s="4">
-        <v>0</v>
-      </c>
-      <c r="I13" s="4">
-        <v>0</v>
-      </c>
-      <c r="J13" s="4">
-        <v>0</v>
-      </c>
-      <c r="K13" s="4">
+      <c r="B14" s="4">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
-      <c r="A14" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>20</v>
-      </c>
-      <c r="B14" s="4">
-        <v>0</v>
-      </c>
-      <c r="C14" s="4">
-        <v>0</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0</v>
-      </c>
-      <c r="E14" s="4">
-        <v>1</v>
-      </c>
-      <c r="F14" s="4">
-        <v>0</v>
-      </c>
-      <c r="G14" s="4">
-        <v>0</v>
-      </c>
-      <c r="H14" s="4">
-        <v>0</v>
-      </c>
-      <c r="I14" s="4">
-        <v>0</v>
-      </c>
-      <c r="J14" s="4">
-        <v>0</v>
-      </c>
-      <c r="K14" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" t="s">
-        <v>21</v>
       </c>
       <c r="B15" s="4">
         <v>0</v>
@@ -1211,12 +1211,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="046302db-2663-4dca-9634-156b8bed17ba">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="68afc0fe-a045-42dc-a2b5-0b58647d7a03" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1443,33 +1445,48 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="046302db-2663-4dca-9634-156b8bed17ba">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="68afc0fe-a045-42dc-a2b5-0b58647d7a03" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBA441D6-4499-41EE-8DBF-7B00AE05A5E0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="046302db-2663-4dca-9634-156b8bed17ba"/>
+    <ds:schemaRef ds:uri="68afc0fe-a045-42dc-a2b5-0b58647d7a03"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B78C84E7-5F71-4445-8D00-306C0E79D63B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="046302db-2663-4dca-9634-156b8bed17ba"/>
+    <ds:schemaRef ds:uri="68afc0fe-a045-42dc-a2b5-0b58647d7a03"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{060419D3-8B88-4079-875F-D3D499EFD61B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B78C84E7-5F71-4445-8D00-306C0E79D63B}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBA441D6-4499-41EE-8DBF-7B00AE05A5E0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>